--- a/data/340101.xlsx
+++ b/data/340101.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\OAD\OAD_PROCESSING\Current month 05_May_2023\Time series spreadsheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\OAD\OAD_PROCESSING\Current month 10_Oct_2023\Time series spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15B7F5F5-129A-4FD9-880E-17D31C4727E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{524EA563-E583-42FC-AB45-F2A3D04331AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="3" r:id="rId1"/>
@@ -18,41 +18,41 @@
     <sheet name="Enquiries" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="A85232555A">Data1!$D$1:$D$10,Data1!$D$11:$D$579</definedName>
-    <definedName name="A85232555A_Data">Data1!$D$11:$D$579</definedName>
-    <definedName name="A85232555A_Latest">Data1!$D$579</definedName>
-    <definedName name="A85232561W">Data1!$L$1:$L$10,Data1!$L$11:$L$579</definedName>
-    <definedName name="A85232561W_Data">Data1!$L$11:$L$579</definedName>
-    <definedName name="A85232561W_Latest">Data1!$L$579</definedName>
-    <definedName name="A85232562X">Data1!$C$1:$C$10,Data1!$C$11:$C$579</definedName>
-    <definedName name="A85232562X_Data">Data1!$C$11:$C$579</definedName>
-    <definedName name="A85232562X_Latest">Data1!$C$579</definedName>
-    <definedName name="A85232565F">Data1!$F$1:$F$10,Data1!$F$11:$F$579</definedName>
-    <definedName name="A85232565F_Data">Data1!$F$11:$F$579</definedName>
-    <definedName name="A85232565F_Latest">Data1!$F$579</definedName>
-    <definedName name="A85232567K">Data1!$B$1:$B$10,Data1!$B$11:$B$579</definedName>
-    <definedName name="A85232567K_Data">Data1!$B$11:$B$579</definedName>
-    <definedName name="A85232567K_Latest">Data1!$B$579</definedName>
-    <definedName name="A85232568L">Data1!$E$1:$E$10,Data1!$E$11:$E$579</definedName>
-    <definedName name="A85232568L_Data">Data1!$E$11:$E$579</definedName>
-    <definedName name="A85232568L_Latest">Data1!$E$579</definedName>
-    <definedName name="A85375533K">Data1!$J$1:$J$10,Data1!$J$11:$J$579</definedName>
-    <definedName name="A85375533K_Data">Data1!$J$11:$J$579</definedName>
-    <definedName name="A85375533K_Latest">Data1!$J$579</definedName>
-    <definedName name="A85375847A">Data1!$I$1:$I$10,Data1!$I$11:$I$579</definedName>
-    <definedName name="A85375847A_Data">Data1!$I$11:$I$579</definedName>
-    <definedName name="A85375847A_Latest">Data1!$I$579</definedName>
-    <definedName name="A85376475T">Data1!$K$1:$K$10,Data1!$K$11:$K$579</definedName>
-    <definedName name="A85376475T_Data">Data1!$K$11:$K$579</definedName>
-    <definedName name="A85376475T_Latest">Data1!$K$579</definedName>
-    <definedName name="A85377103W">Data1!$G$1:$G$10,Data1!$G$11:$G$579</definedName>
-    <definedName name="A85377103W_Data">Data1!$G$11:$G$579</definedName>
-    <definedName name="A85377103W_Latest">Data1!$G$579</definedName>
-    <definedName name="A85378045C">Data1!$H$1:$H$10,Data1!$H$11:$H$579</definedName>
-    <definedName name="A85378045C_Data">Data1!$H$11:$H$579</definedName>
-    <definedName name="A85378045C_Latest">Data1!$H$579</definedName>
-    <definedName name="Date_Range">Data1!$A$2:$A$10,Data1!$A$11:$A$579</definedName>
-    <definedName name="Date_Range_Data">Data1!$A$11:$A$579</definedName>
+    <definedName name="A85232555A">Data1!$D$1:$D$10,Data1!$D$11:$D$584</definedName>
+    <definedName name="A85232555A_Data">Data1!$D$11:$D$584</definedName>
+    <definedName name="A85232555A_Latest">Data1!$D$584</definedName>
+    <definedName name="A85232561W">Data1!$L$1:$L$10,Data1!$L$11:$L$584</definedName>
+    <definedName name="A85232561W_Data">Data1!$L$11:$L$584</definedName>
+    <definedName name="A85232561W_Latest">Data1!$L$584</definedName>
+    <definedName name="A85232562X">Data1!$C$1:$C$10,Data1!$C$11:$C$584</definedName>
+    <definedName name="A85232562X_Data">Data1!$C$11:$C$584</definedName>
+    <definedName name="A85232562X_Latest">Data1!$C$584</definedName>
+    <definedName name="A85232565F">Data1!$F$1:$F$10,Data1!$F$11:$F$584</definedName>
+    <definedName name="A85232565F_Data">Data1!$F$11:$F$584</definedName>
+    <definedName name="A85232565F_Latest">Data1!$F$584</definedName>
+    <definedName name="A85232567K">Data1!$B$1:$B$10,Data1!$B$11:$B$584</definedName>
+    <definedName name="A85232567K_Data">Data1!$B$11:$B$584</definedName>
+    <definedName name="A85232567K_Latest">Data1!$B$584</definedName>
+    <definedName name="A85232568L">Data1!$E$1:$E$10,Data1!$E$11:$E$584</definedName>
+    <definedName name="A85232568L_Data">Data1!$E$11:$E$584</definedName>
+    <definedName name="A85232568L_Latest">Data1!$E$584</definedName>
+    <definedName name="A85375533K">Data1!$J$1:$J$10,Data1!$J$11:$J$584</definedName>
+    <definedName name="A85375533K_Data">Data1!$J$11:$J$584</definedName>
+    <definedName name="A85375533K_Latest">Data1!$J$584</definedName>
+    <definedName name="A85375847A">Data1!$I$1:$I$10,Data1!$I$11:$I$584</definedName>
+    <definedName name="A85375847A_Data">Data1!$I$11:$I$584</definedName>
+    <definedName name="A85375847A_Latest">Data1!$I$584</definedName>
+    <definedName name="A85376475T">Data1!$K$1:$K$10,Data1!$K$11:$K$584</definedName>
+    <definedName name="A85376475T_Data">Data1!$K$11:$K$584</definedName>
+    <definedName name="A85376475T_Latest">Data1!$K$584</definedName>
+    <definedName name="A85377103W">Data1!$G$1:$G$10,Data1!$G$11:$G$584</definedName>
+    <definedName name="A85377103W_Data">Data1!$G$11:$G$584</definedName>
+    <definedName name="A85377103W_Latest">Data1!$G$584</definedName>
+    <definedName name="A85378045C">Data1!$H$1:$H$10,Data1!$H$11:$H$584</definedName>
+    <definedName name="A85378045C_Data">Data1!$H$11:$H$584</definedName>
+    <definedName name="A85378045C_Latest">Data1!$H$584</definedName>
+    <definedName name="Date_Range">Data1!$A$2:$A$10,Data1!$A$11:$A$584</definedName>
+    <definedName name="Date_Range_Data">Data1!$A$11:$A$584</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -1007,10 +1007,10 @@
         <v>27760</v>
       </c>
       <c r="G12" s="9">
-        <v>45047</v>
+        <v>45200</v>
       </c>
       <c r="H12" s="10">
-        <v>569</v>
+        <v>574</v>
       </c>
       <c r="I12" s="10" t="s">
         <v>16</v>
@@ -1039,10 +1039,10 @@
         <v>27760</v>
       </c>
       <c r="G13" s="9">
-        <v>45047</v>
+        <v>45200</v>
       </c>
       <c r="H13" s="10">
-        <v>569</v>
+        <v>574</v>
       </c>
       <c r="I13" s="10" t="s">
         <v>16</v>
@@ -1071,10 +1071,10 @@
         <v>27760</v>
       </c>
       <c r="G14" s="9">
-        <v>45047</v>
+        <v>45200</v>
       </c>
       <c r="H14" s="10">
-        <v>569</v>
+        <v>574</v>
       </c>
       <c r="I14" s="10" t="s">
         <v>16</v>
@@ -1103,10 +1103,10 @@
         <v>27760</v>
       </c>
       <c r="G15" s="9">
-        <v>45047</v>
+        <v>45200</v>
       </c>
       <c r="H15" s="10">
-        <v>569</v>
+        <v>574</v>
       </c>
       <c r="I15" s="10" t="s">
         <v>16</v>
@@ -1135,10 +1135,10 @@
         <v>27760</v>
       </c>
       <c r="G16" s="9">
-        <v>45047</v>
+        <v>45200</v>
       </c>
       <c r="H16" s="10">
-        <v>569</v>
+        <v>574</v>
       </c>
       <c r="I16" s="10" t="s">
         <v>16</v>
@@ -1167,10 +1167,10 @@
         <v>27760</v>
       </c>
       <c r="G17" s="9">
-        <v>45047</v>
+        <v>45200</v>
       </c>
       <c r="H17" s="10">
-        <v>569</v>
+        <v>574</v>
       </c>
       <c r="I17" s="10" t="s">
         <v>16</v>
@@ -1199,10 +1199,10 @@
         <v>27760</v>
       </c>
       <c r="G18" s="9">
-        <v>45047</v>
+        <v>45200</v>
       </c>
       <c r="H18" s="10">
-        <v>569</v>
+        <v>574</v>
       </c>
       <c r="I18" s="10" t="s">
         <v>16</v>
@@ -1231,10 +1231,10 @@
         <v>27760</v>
       </c>
       <c r="G19" s="9">
-        <v>45047</v>
+        <v>45200</v>
       </c>
       <c r="H19" s="10">
-        <v>569</v>
+        <v>574</v>
       </c>
       <c r="I19" s="10" t="s">
         <v>16</v>
@@ -1263,10 +1263,10 @@
         <v>27760</v>
       </c>
       <c r="G20" s="9">
-        <v>45047</v>
+        <v>45200</v>
       </c>
       <c r="H20" s="10">
-        <v>569</v>
+        <v>574</v>
       </c>
       <c r="I20" s="10" t="s">
         <v>16</v>
@@ -1295,10 +1295,10 @@
         <v>27760</v>
       </c>
       <c r="G21" s="9">
-        <v>45047</v>
+        <v>45200</v>
       </c>
       <c r="H21" s="10">
-        <v>569</v>
+        <v>574</v>
       </c>
       <c r="I21" s="10" t="s">
         <v>16</v>
@@ -1327,10 +1327,10 @@
         <v>27760</v>
       </c>
       <c r="G22" s="9">
-        <v>45047</v>
+        <v>45200</v>
       </c>
       <c r="H22" s="10">
-        <v>569</v>
+        <v>574</v>
       </c>
       <c r="I22" s="10" t="s">
         <v>16</v>
@@ -1377,10 +1377,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:O579"/>
+  <dimension ref="A1:O584"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="10" topLeftCell="B547" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="10" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
       <selection pane="bottomRight"/>
@@ -1682,37 +1682,37 @@
         <v>13</v>
       </c>
       <c r="B8" s="6">
-        <v>45047</v>
+        <v>45200</v>
       </c>
       <c r="C8" s="6">
-        <v>45047</v>
+        <v>45200</v>
       </c>
       <c r="D8" s="6">
-        <v>45047</v>
+        <v>45200</v>
       </c>
       <c r="E8" s="6">
-        <v>45047</v>
+        <v>45200</v>
       </c>
       <c r="F8" s="6">
-        <v>45047</v>
+        <v>45200</v>
       </c>
       <c r="G8" s="6">
-        <v>45047</v>
+        <v>45200</v>
       </c>
       <c r="H8" s="6">
-        <v>45047</v>
+        <v>45200</v>
       </c>
       <c r="I8" s="6">
-        <v>45047</v>
+        <v>45200</v>
       </c>
       <c r="J8" s="6">
-        <v>45047</v>
+        <v>45200</v>
       </c>
       <c r="K8" s="6">
-        <v>45047</v>
+        <v>45200</v>
       </c>
       <c r="L8" s="6">
-        <v>45047</v>
+        <v>45200</v>
       </c>
       <c r="M8" s="21"/>
       <c r="N8" s="21"/>
@@ -1723,37 +1723,37 @@
         <v>14</v>
       </c>
       <c r="B9" s="1">
-        <v>569</v>
+        <v>574</v>
       </c>
       <c r="C9" s="1">
-        <v>569</v>
+        <v>574</v>
       </c>
       <c r="D9" s="1">
-        <v>569</v>
+        <v>574</v>
       </c>
       <c r="E9" s="1">
-        <v>569</v>
+        <v>574</v>
       </c>
       <c r="F9" s="1">
-        <v>569</v>
+        <v>574</v>
       </c>
       <c r="G9" s="1">
-        <v>569</v>
+        <v>574</v>
       </c>
       <c r="H9" s="1">
-        <v>569</v>
+        <v>574</v>
       </c>
       <c r="I9" s="1">
-        <v>569</v>
+        <v>574</v>
       </c>
       <c r="J9" s="1">
-        <v>569</v>
+        <v>574</v>
       </c>
       <c r="K9" s="1">
-        <v>569</v>
+        <v>574</v>
       </c>
       <c r="L9" s="1">
-        <v>569</v>
+        <v>574</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
@@ -18862,6 +18862,156 @@
       <c r="K579" s="8"/>
       <c r="L579" s="8">
         <v>1296710</v>
+      </c>
+    </row>
+    <row r="580" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A580" s="9">
+        <v>45078</v>
+      </c>
+      <c r="B580" s="8">
+        <v>12590</v>
+      </c>
+      <c r="C580" s="8">
+        <v>12500</v>
+      </c>
+      <c r="D580" s="8">
+        <v>60980</v>
+      </c>
+      <c r="E580" s="8">
+        <v>86060</v>
+      </c>
+      <c r="F580" s="8">
+        <v>729540</v>
+      </c>
+      <c r="G580" s="8"/>
+      <c r="H580" s="8"/>
+      <c r="I580" s="8">
+        <v>542080</v>
+      </c>
+      <c r="J580" s="8"/>
+      <c r="K580" s="8"/>
+      <c r="L580" s="8">
+        <v>1357680</v>
+      </c>
+    </row>
+    <row r="581" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A581" s="9">
+        <v>45108</v>
+      </c>
+      <c r="B581" s="8">
+        <v>10400</v>
+      </c>
+      <c r="C581" s="8">
+        <v>12100</v>
+      </c>
+      <c r="D581" s="8">
+        <v>100190</v>
+      </c>
+      <c r="E581" s="8">
+        <v>122690</v>
+      </c>
+      <c r="F581" s="8">
+        <v>995580</v>
+      </c>
+      <c r="G581" s="8"/>
+      <c r="H581" s="8"/>
+      <c r="I581" s="8">
+        <v>625120</v>
+      </c>
+      <c r="J581" s="8"/>
+      <c r="K581" s="8"/>
+      <c r="L581" s="8">
+        <v>1743390</v>
+      </c>
+    </row>
+    <row r="582" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A582" s="9">
+        <v>45139</v>
+      </c>
+      <c r="B582" s="8">
+        <v>13230</v>
+      </c>
+      <c r="C582" s="8">
+        <v>12080</v>
+      </c>
+      <c r="D582" s="8">
+        <v>57490</v>
+      </c>
+      <c r="E582" s="8">
+        <v>82810</v>
+      </c>
+      <c r="F582" s="8">
+        <v>858540</v>
+      </c>
+      <c r="G582" s="8"/>
+      <c r="H582" s="8"/>
+      <c r="I582" s="8">
+        <v>603360</v>
+      </c>
+      <c r="J582" s="8"/>
+      <c r="K582" s="8"/>
+      <c r="L582" s="8">
+        <v>1544700</v>
+      </c>
+    </row>
+    <row r="583" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A583" s="9">
+        <v>45170</v>
+      </c>
+      <c r="B583" s="8">
+        <v>11850</v>
+      </c>
+      <c r="C583" s="8">
+        <v>11600</v>
+      </c>
+      <c r="D583" s="8">
+        <v>55590</v>
+      </c>
+      <c r="E583" s="8">
+        <v>79040</v>
+      </c>
+      <c r="F583" s="8">
+        <v>939060</v>
+      </c>
+      <c r="G583" s="8"/>
+      <c r="H583" s="8"/>
+      <c r="I583" s="8">
+        <v>584620</v>
+      </c>
+      <c r="J583" s="8"/>
+      <c r="K583" s="8"/>
+      <c r="L583" s="8">
+        <v>1602720</v>
+      </c>
+    </row>
+    <row r="584" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A584" s="9">
+        <v>45200</v>
+      </c>
+      <c r="B584" s="8">
+        <v>11030</v>
+      </c>
+      <c r="C584" s="8">
+        <v>11110</v>
+      </c>
+      <c r="D584" s="8">
+        <v>51440</v>
+      </c>
+      <c r="E584" s="8">
+        <v>73580</v>
+      </c>
+      <c r="F584" s="8">
+        <v>1061340</v>
+      </c>
+      <c r="G584" s="8"/>
+      <c r="H584" s="8"/>
+      <c r="I584" s="8">
+        <v>607930</v>
+      </c>
+      <c r="J584" s="8"/>
+      <c r="K584" s="8"/>
+      <c r="L584" s="8">
+        <v>1742840</v>
       </c>
     </row>
   </sheetData>
@@ -18869,8 +19019,8 @@
     <mergeCell ref="M1:O8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/data/340101.xlsx
+++ b/data/340101.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\OAD\OAD_PROCESSING\Current month 10_Oct_2023\Time series spreadsheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\OAD\OAD_PROCESSING\Current month 11_Nov_2023\Time series spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{524EA563-E583-42FC-AB45-F2A3D04331AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3F8405B-13C1-4A30-BD27-FCCEF472AB13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="3" r:id="rId1"/>
@@ -18,41 +18,41 @@
     <sheet name="Enquiries" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="A85232555A">Data1!$D$1:$D$10,Data1!$D$11:$D$584</definedName>
-    <definedName name="A85232555A_Data">Data1!$D$11:$D$584</definedName>
-    <definedName name="A85232555A_Latest">Data1!$D$584</definedName>
-    <definedName name="A85232561W">Data1!$L$1:$L$10,Data1!$L$11:$L$584</definedName>
-    <definedName name="A85232561W_Data">Data1!$L$11:$L$584</definedName>
-    <definedName name="A85232561W_Latest">Data1!$L$584</definedName>
-    <definedName name="A85232562X">Data1!$C$1:$C$10,Data1!$C$11:$C$584</definedName>
-    <definedName name="A85232562X_Data">Data1!$C$11:$C$584</definedName>
-    <definedName name="A85232562X_Latest">Data1!$C$584</definedName>
-    <definedName name="A85232565F">Data1!$F$1:$F$10,Data1!$F$11:$F$584</definedName>
-    <definedName name="A85232565F_Data">Data1!$F$11:$F$584</definedName>
-    <definedName name="A85232565F_Latest">Data1!$F$584</definedName>
-    <definedName name="A85232567K">Data1!$B$1:$B$10,Data1!$B$11:$B$584</definedName>
-    <definedName name="A85232567K_Data">Data1!$B$11:$B$584</definedName>
-    <definedName name="A85232567K_Latest">Data1!$B$584</definedName>
-    <definedName name="A85232568L">Data1!$E$1:$E$10,Data1!$E$11:$E$584</definedName>
-    <definedName name="A85232568L_Data">Data1!$E$11:$E$584</definedName>
-    <definedName name="A85232568L_Latest">Data1!$E$584</definedName>
-    <definedName name="A85375533K">Data1!$J$1:$J$10,Data1!$J$11:$J$584</definedName>
-    <definedName name="A85375533K_Data">Data1!$J$11:$J$584</definedName>
-    <definedName name="A85375533K_Latest">Data1!$J$584</definedName>
-    <definedName name="A85375847A">Data1!$I$1:$I$10,Data1!$I$11:$I$584</definedName>
-    <definedName name="A85375847A_Data">Data1!$I$11:$I$584</definedName>
-    <definedName name="A85375847A_Latest">Data1!$I$584</definedName>
-    <definedName name="A85376475T">Data1!$K$1:$K$10,Data1!$K$11:$K$584</definedName>
-    <definedName name="A85376475T_Data">Data1!$K$11:$K$584</definedName>
-    <definedName name="A85376475T_Latest">Data1!$K$584</definedName>
-    <definedName name="A85377103W">Data1!$G$1:$G$10,Data1!$G$11:$G$584</definedName>
-    <definedName name="A85377103W_Data">Data1!$G$11:$G$584</definedName>
-    <definedName name="A85377103W_Latest">Data1!$G$584</definedName>
-    <definedName name="A85378045C">Data1!$H$1:$H$10,Data1!$H$11:$H$584</definedName>
-    <definedName name="A85378045C_Data">Data1!$H$11:$H$584</definedName>
-    <definedName name="A85378045C_Latest">Data1!$H$584</definedName>
-    <definedName name="Date_Range">Data1!$A$2:$A$10,Data1!$A$11:$A$584</definedName>
-    <definedName name="Date_Range_Data">Data1!$A$11:$A$584</definedName>
+    <definedName name="A85232555A">Data1!$D$1:$D$10,Data1!$D$11:$D$585</definedName>
+    <definedName name="A85232555A_Data">Data1!$D$11:$D$585</definedName>
+    <definedName name="A85232555A_Latest">Data1!$D$585</definedName>
+    <definedName name="A85232561W">Data1!$L$1:$L$10,Data1!$L$11:$L$585</definedName>
+    <definedName name="A85232561W_Data">Data1!$L$11:$L$585</definedName>
+    <definedName name="A85232561W_Latest">Data1!$L$585</definedName>
+    <definedName name="A85232562X">Data1!$C$1:$C$10,Data1!$C$11:$C$585</definedName>
+    <definedName name="A85232562X_Data">Data1!$C$11:$C$585</definedName>
+    <definedName name="A85232562X_Latest">Data1!$C$585</definedName>
+    <definedName name="A85232565F">Data1!$F$1:$F$10,Data1!$F$11:$F$585</definedName>
+    <definedName name="A85232565F_Data">Data1!$F$11:$F$585</definedName>
+    <definedName name="A85232565F_Latest">Data1!$F$585</definedName>
+    <definedName name="A85232567K">Data1!$B$1:$B$10,Data1!$B$11:$B$585</definedName>
+    <definedName name="A85232567K_Data">Data1!$B$11:$B$585</definedName>
+    <definedName name="A85232567K_Latest">Data1!$B$585</definedName>
+    <definedName name="A85232568L">Data1!$E$1:$E$10,Data1!$E$11:$E$585</definedName>
+    <definedName name="A85232568L_Data">Data1!$E$11:$E$585</definedName>
+    <definedName name="A85232568L_Latest">Data1!$E$585</definedName>
+    <definedName name="A85375533K">Data1!$J$1:$J$10,Data1!$J$11:$J$585</definedName>
+    <definedName name="A85375533K_Data">Data1!$J$11:$J$585</definedName>
+    <definedName name="A85375533K_Latest">Data1!$J$585</definedName>
+    <definedName name="A85375847A">Data1!$I$1:$I$10,Data1!$I$11:$I$585</definedName>
+    <definedName name="A85375847A_Data">Data1!$I$11:$I$585</definedName>
+    <definedName name="A85375847A_Latest">Data1!$I$585</definedName>
+    <definedName name="A85376475T">Data1!$K$1:$K$10,Data1!$K$11:$K$585</definedName>
+    <definedName name="A85376475T_Data">Data1!$K$11:$K$585</definedName>
+    <definedName name="A85376475T_Latest">Data1!$K$585</definedName>
+    <definedName name="A85377103W">Data1!$G$1:$G$10,Data1!$G$11:$G$585</definedName>
+    <definedName name="A85377103W_Data">Data1!$G$11:$G$585</definedName>
+    <definedName name="A85377103W_Latest">Data1!$G$585</definedName>
+    <definedName name="A85378045C">Data1!$H$1:$H$10,Data1!$H$11:$H$585</definedName>
+    <definedName name="A85378045C_Data">Data1!$H$11:$H$585</definedName>
+    <definedName name="A85378045C_Latest">Data1!$H$585</definedName>
+    <definedName name="Date_Range">Data1!$A$2:$A$10,Data1!$A$11:$A$585</definedName>
+    <definedName name="Date_Range_Data">Data1!$A$11:$A$585</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -278,7 +278,7 @@
     <t>Freq.</t>
   </si>
   <si>
-    <t>© Commonwealth of Australia  2023</t>
+    <t>© Commonwealth of Australia  2024</t>
   </si>
   <si>
     <t>Please Note: Trend has been suspended from February 2020 and seasonally adjusted has been suspended from April 2020 due to the impact of the COVID-19 pandemic on international travel. Please see the History of changes section for the year 2020 on the Methodology page.</t>
@@ -460,16 +460,16 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -934,22 +934,22 @@
       </c>
     </row>
     <row r="6" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="19"/>
-      <c r="L6" s="19"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="20"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="19" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1007,10 +1007,10 @@
         <v>27760</v>
       </c>
       <c r="G12" s="9">
-        <v>45200</v>
+        <v>45231</v>
       </c>
       <c r="H12" s="10">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="I12" s="10" t="s">
         <v>16</v>
@@ -1039,10 +1039,10 @@
         <v>27760</v>
       </c>
       <c r="G13" s="9">
-        <v>45200</v>
+        <v>45231</v>
       </c>
       <c r="H13" s="10">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="I13" s="10" t="s">
         <v>16</v>
@@ -1071,10 +1071,10 @@
         <v>27760</v>
       </c>
       <c r="G14" s="9">
-        <v>45200</v>
+        <v>45231</v>
       </c>
       <c r="H14" s="10">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="I14" s="10" t="s">
         <v>16</v>
@@ -1103,10 +1103,10 @@
         <v>27760</v>
       </c>
       <c r="G15" s="9">
-        <v>45200</v>
+        <v>45231</v>
       </c>
       <c r="H15" s="10">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="I15" s="10" t="s">
         <v>16</v>
@@ -1135,10 +1135,10 @@
         <v>27760</v>
       </c>
       <c r="G16" s="9">
-        <v>45200</v>
+        <v>45231</v>
       </c>
       <c r="H16" s="10">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="I16" s="10" t="s">
         <v>16</v>
@@ -1167,10 +1167,10 @@
         <v>27760</v>
       </c>
       <c r="G17" s="9">
-        <v>45200</v>
+        <v>45231</v>
       </c>
       <c r="H17" s="10">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="I17" s="10" t="s">
         <v>16</v>
@@ -1199,10 +1199,10 @@
         <v>27760</v>
       </c>
       <c r="G18" s="9">
-        <v>45200</v>
+        <v>45231</v>
       </c>
       <c r="H18" s="10">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="I18" s="10" t="s">
         <v>16</v>
@@ -1231,10 +1231,10 @@
         <v>27760</v>
       </c>
       <c r="G19" s="9">
-        <v>45200</v>
+        <v>45231</v>
       </c>
       <c r="H19" s="10">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="I19" s="10" t="s">
         <v>16</v>
@@ -1263,10 +1263,10 @@
         <v>27760</v>
       </c>
       <c r="G20" s="9">
-        <v>45200</v>
+        <v>45231</v>
       </c>
       <c r="H20" s="10">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="I20" s="10" t="s">
         <v>16</v>
@@ -1295,10 +1295,10 @@
         <v>27760</v>
       </c>
       <c r="G21" s="9">
-        <v>45200</v>
+        <v>45231</v>
       </c>
       <c r="H21" s="10">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="I21" s="10" t="s">
         <v>16</v>
@@ -1327,10 +1327,10 @@
         <v>27760</v>
       </c>
       <c r="G22" s="9">
-        <v>45200</v>
+        <v>45231</v>
       </c>
       <c r="H22" s="10">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="I22" s="10" t="s">
         <v>16</v>
@@ -1377,7 +1377,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:O584"/>
+  <dimension ref="A1:O585"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="10" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
@@ -1425,11 +1425,11 @@
       <c r="L1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="22" t="s">
+      <c r="M1" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="N1" s="21"/>
-      <c r="O1" s="21"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="22"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
@@ -1468,9 +1468,9 @@
       <c r="L2" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="M2" s="21"/>
-      <c r="N2" s="21"/>
-      <c r="O2" s="21"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
@@ -1509,9 +1509,9 @@
       <c r="L3" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="M3" s="21"/>
-      <c r="N3" s="21"/>
-      <c r="O3" s="21"/>
+      <c r="M3" s="22"/>
+      <c r="N3" s="22"/>
+      <c r="O3" s="22"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
@@ -1550,9 +1550,9 @@
       <c r="L4" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="M4" s="21"/>
-      <c r="N4" s="21"/>
-      <c r="O4" s="21"/>
+      <c r="M4" s="22"/>
+      <c r="N4" s="22"/>
+      <c r="O4" s="22"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
@@ -1591,9 +1591,9 @@
       <c r="L5" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="M5" s="21"/>
-      <c r="N5" s="21"/>
-      <c r="O5" s="21"/>
+      <c r="M5" s="22"/>
+      <c r="N5" s="22"/>
+      <c r="O5" s="22"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
@@ -1632,9 +1632,9 @@
       <c r="L6" s="1">
         <v>1</v>
       </c>
-      <c r="M6" s="21"/>
-      <c r="N6" s="21"/>
-      <c r="O6" s="21"/>
+      <c r="M6" s="22"/>
+      <c r="N6" s="22"/>
+      <c r="O6" s="22"/>
     </row>
     <row r="7" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
@@ -1673,87 +1673,87 @@
       <c r="L7" s="6">
         <v>27760</v>
       </c>
-      <c r="M7" s="21"/>
-      <c r="N7" s="21"/>
-      <c r="O7" s="21"/>
+      <c r="M7" s="22"/>
+      <c r="N7" s="22"/>
+      <c r="O7" s="22"/>
     </row>
     <row r="8" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B8" s="6">
-        <v>45200</v>
+        <v>45231</v>
       </c>
       <c r="C8" s="6">
-        <v>45200</v>
+        <v>45231</v>
       </c>
       <c r="D8" s="6">
-        <v>45200</v>
+        <v>45231</v>
       </c>
       <c r="E8" s="6">
-        <v>45200</v>
+        <v>45231</v>
       </c>
       <c r="F8" s="6">
-        <v>45200</v>
+        <v>45231</v>
       </c>
       <c r="G8" s="6">
-        <v>45200</v>
+        <v>45231</v>
       </c>
       <c r="H8" s="6">
-        <v>45200</v>
+        <v>45231</v>
       </c>
       <c r="I8" s="6">
-        <v>45200</v>
+        <v>45231</v>
       </c>
       <c r="J8" s="6">
-        <v>45200</v>
+        <v>45231</v>
       </c>
       <c r="K8" s="6">
-        <v>45200</v>
+        <v>45231</v>
       </c>
       <c r="L8" s="6">
-        <v>45200</v>
-      </c>
-      <c r="M8" s="21"/>
-      <c r="N8" s="21"/>
-      <c r="O8" s="21"/>
+        <v>45231</v>
+      </c>
+      <c r="M8" s="22"/>
+      <c r="N8" s="22"/>
+      <c r="O8" s="22"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>14</v>
       </c>
       <c r="B9" s="1">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="C9" s="1">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="D9" s="1">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="E9" s="1">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="F9" s="1">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="G9" s="1">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="H9" s="1">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="I9" s="1">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="J9" s="1">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="K9" s="1">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="L9" s="1">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
@@ -19012,6 +19012,36 @@
       <c r="K584" s="8"/>
       <c r="L584" s="8">
         <v>1742840</v>
+      </c>
+    </row>
+    <row r="585" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A585" s="9">
+        <v>45231</v>
+      </c>
+      <c r="B585" s="8">
+        <v>13940</v>
+      </c>
+      <c r="C585" s="8">
+        <v>13530</v>
+      </c>
+      <c r="D585" s="8">
+        <v>50540</v>
+      </c>
+      <c r="E585" s="8">
+        <v>78000</v>
+      </c>
+      <c r="F585" s="8">
+        <v>820760</v>
+      </c>
+      <c r="G585" s="8"/>
+      <c r="H585" s="8"/>
+      <c r="I585" s="8">
+        <v>663760</v>
+      </c>
+      <c r="J585" s="8"/>
+      <c r="K585" s="8"/>
+      <c r="L585" s="8">
+        <v>1562520</v>
       </c>
     </row>
   </sheetData>
@@ -19028,7 +19058,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:Z11"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="Z1" sqref="Z1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.7109375" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -19097,19 +19129,19 @@
       </c>
     </row>
     <row r="6" spans="2:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="19"/>
-      <c r="L6" s="19"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="20"/>
     </row>
     <row r="10" spans="2:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B10" s="14" t="s">
